--- a/test/TestData/001.SampleExcel.xlsx
+++ b/test/TestData/001.SampleExcel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\source\repos\NuclearEvaluation\test\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBB34DC6-0007-4068-B320-D8208761DFF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3179AA8D-9A50-4E76-89B5-31C79A35576F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -393,10 +393,10 @@
         <v>2</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
